--- a/biology/Microbiologie/Milieu_de_culture/Milieu_de_culture.xlsx
+++ b/biology/Microbiologie/Milieu_de_culture/Milieu_de_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un milieu de culture est un support qui permet la culture de cellules, de bactéries, de levures, de moisissures afin de permettre leur étude. En principe, les cellules trouvent dans ce milieu les composants indispensables pour leur multiplication en grand nombre, rapidement, mais aussi parfois des éléments qui permettront de privilégier un genre bactérien ou une famille. Ainsi, selon le but de la culture, il est possible de placer les micro-organismes dans des conditions optimales, ou tout à fait défavorables.
 Il se compose d'une base (agar-agar, eau, minéraux, etc.) ainsi que d'un indicateur coloré de pH ou de réaction d'oxydoréduction pour permettre  de formuler des hypothèses sur le genre.
@@ -514,7 +526,9 @@
           <t>Notion de milieu minimum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un milieu minimum ou milieu défini est un milieu comportant les éléments chimiques strictement nécessaires à la croissance bactérienne, sous une forme utilisable par des bactéries n'ayant pas d'exigence particulière.
 Composition d'un milieu minimum :
@@ -556,13 +570,11 @@
           <t>Milieu de culture empirique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un milieu de culture dit « empirique » est un milieu contenant des produits d'origine naturelle et dont on ne connaît pas exactement la composition.
-Milieu cœur-cervelle
-Dans le milieu type cœur-cervelle, il y a de l'eau, de l'agar-agar, de l'hydrolysat de cœur et de cervelle sans que l'on en connaisse les aspects qualitatifs et quantitatifs. Il sera donc utilisé uniquement pour la croissance des bactéries. Il n'a pas d'effet sélectif.
-Embryon de poulet
-Les premières recherches sur les virus, à partir des années 1930, utilisent comme milieu de culture l'œuf de poule embryonné. L'agent à multiplier est inoculé dans les membranes amniotiques ou allantoïques. Dans ce système ont pu être étudiés les virus de la variole, de l'herpès, de la grippe, des oreillons, de la rage, etc., ainsi que des bactéries intracellulaires comme les rickettsies[1]. Dans les années 1950, ce système a été le plus souvent supplanté, dans les laboratoires de recherche, par la culture cellulaire. Il reste utilisé pour la production du vaccin antigrippal.
 </t>
         </is>
       </c>
@@ -588,10 +600,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Milieu de culture empirique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Milieu cœur-cervelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le milieu type cœur-cervelle, il y a de l'eau, de l'agar-agar, de l'hydrolysat de cœur et de cervelle sans que l'on en connaisse les aspects qualitatifs et quantitatifs. Il sera donc utilisé uniquement pour la croissance des bactéries. Il n'a pas d'effet sélectif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Milieu de culture empirique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Embryon de poulet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières recherches sur les virus, à partir des années 1930, utilisent comme milieu de culture l'œuf de poule embryonné. L'agent à multiplier est inoculé dans les membranes amniotiques ou allantoïques. Dans ce système ont pu être étudiés les virus de la variole, de l'herpès, de la grippe, des oreillons, de la rage, etc., ainsi que des bactéries intracellulaires comme les rickettsies. Dans les années 1950, ce système a été le plus souvent supplanté, dans les laboratoires de recherche, par la culture cellulaire. Il reste utilisé pour la production du vaccin antigrippal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Milieu de culture sélectif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les milieux de culture dits « sélectifs » permettent uniquement la culture de certains genres de micro-organismes. Pour cela, on ajoute des éléments qui inhibent la croissance des micro-organismes indésirables comme le chlorure de sodium à forte concentration, le thiosulfate de sodium, le cristal violet ou certains antibiotiques.
 Les éléments ajoutés sont sélectionnés selon les caractéristiques du micro-organisme recherché. Ces milieux sont utilisés pour l'analyse d'un prélèvement polybactérien. Ce milieu permet de sélectionner uniquement en cas de crible positif : résistance à un antibiotique, la prototrophie, etc.
@@ -602,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Milieu de culture enrichi</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les milieux de culture enrichis contiennent, outre les composants de base, des composants indispensables aux bactéries, que celles-ci ne peuvent pas synthétiser. Ce sont des milieux utilisés pour l'obtention des bactéries dites « exigeantes » et auxotrophes. Par exemple : les milieux au sang frais (le sang est riche en nutriments divers comme le fer, principal facteur de croissance des bactéries) : gélose au sang frais ou cuit.
 Les milieux avec du sérum, du jaune d'œuf : gélose Baird Parker ou dite « BP ».
@@ -634,33 +724,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Milieu différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le  milieu de culture dit « différentiel » ou « indicateur » permet de distinguer deux types de microorganismes se développant dans un même milieu[2]. Ce type de milieu met en évidence certaines caractéristiques biochimiques des microorganismes (principalement l'aptitude à dégrader un substrat) en présence d'indicateur(s) de la réaction chimique : des indicateurs colorés de pH ou d'oxydoréduction (tels que le rouge neutre, rouge de phénol, l'éosine ou le bleu de méthylène).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le  milieu de culture dit « différentiel » ou « indicateur » permet de distinguer deux types de microorganismes se développant dans un même milieu. Ce type de milieu met en évidence certaines caractéristiques biochimiques des microorganismes (principalement l'aptitude à dégrader un substrat) en présence d'indicateur(s) de la réaction chimique : des indicateurs colorés de pH ou d'oxydoréduction (tels que le rouge neutre, rouge de phénol, l'éosine ou le bleu de méthylène).
 On retrouve parmi les milieux différentiels :
 les géloses CLED et BCP et qui différencient la dégradation du lactose, ainsi que la dénomination indirecte d'E. coli qui sont des entérobactéries hyper-résistantes ;
 la gélose éosine bleu de méthylène (EMB), qui différencie la fermentation du lactose de celle du saccharose ;
@@ -671,31 +763,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Milieu chromogène (ou discriminant)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu peut être sélectif ou non. Son principe repose sur la présence d'un ou plusieurs substrat(s) couplé(s) à une molécule chromogène. Lorsque ce substrat est métabolisé par une enzyme bactérienne spécifique, le chromogène associé prend une couleur particulière (il devient un chromophore) directement lisible sur la colonie. Si l'enzyme n'existe que chez une espèce bactérienne donnée, l'identification est immédiate.
 Parmi ces milieux, on trouve :
@@ -711,31 +805,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milieu_de_culture</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Contrôle des milieux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Depuis 2014, la norme ISO 1133 impose des contrôles sur la performance des milieux. Ceci sont à réaliser à des fréquences régulières telles que :
 pour les fabricants : tous les lots ;
